--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Plxnc1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Plxnc1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H2">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I2">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J2">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.467875</v>
+        <v>0.4183703333333333</v>
       </c>
       <c r="N2">
-        <v>1.403625</v>
+        <v>1.255111</v>
       </c>
       <c r="O2">
-        <v>0.00865732744599499</v>
+        <v>0.005711648524749429</v>
       </c>
       <c r="P2">
-        <v>0.008719533581595823</v>
+        <v>0.005753417437434563</v>
       </c>
       <c r="Q2">
-        <v>16.95527284216667</v>
+        <v>15.64435532497933</v>
       </c>
       <c r="R2">
-        <v>152.5974555795</v>
+        <v>140.799197924814</v>
       </c>
       <c r="S2">
-        <v>0.005377531939858242</v>
+        <v>0.003549353493020711</v>
       </c>
       <c r="T2">
-        <v>0.005535911715851331</v>
+        <v>0.003676464596617085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H3">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I3">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J3">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.951965000000001</v>
       </c>
       <c r="O3">
-        <v>0.05521424332716115</v>
+        <v>0.04073781337734952</v>
       </c>
       <c r="P3">
-        <v>0.05561097831598217</v>
+        <v>0.04103572634635814</v>
       </c>
       <c r="Q3">
-        <v>108.1364388982289</v>
+        <v>111.5819408138234</v>
       </c>
       <c r="R3">
-        <v>973.2279500840601</v>
+        <v>1004.23746732441</v>
       </c>
       <c r="S3">
-        <v>0.03429653768776782</v>
+        <v>0.02531544081929738</v>
       </c>
       <c r="T3">
-        <v>0.03530664381397529</v>
+        <v>0.02622204919935788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H4">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I4">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J4">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.20955833333333</v>
+        <v>33.83923033333334</v>
       </c>
       <c r="N4">
-        <v>78.628675</v>
+        <v>101.517691</v>
       </c>
       <c r="O4">
-        <v>0.4849686961401515</v>
+        <v>0.4619777613582532</v>
       </c>
       <c r="P4">
-        <v>0.4884533776036221</v>
+        <v>0.4653561745594564</v>
       </c>
       <c r="Q4">
-        <v>949.8054237015223</v>
+        <v>1265.36922214486</v>
       </c>
       <c r="R4">
-        <v>8548.248813313699</v>
+        <v>11388.32299930373</v>
       </c>
       <c r="S4">
-        <v>0.301240154030623</v>
+        <v>0.2870839082393886</v>
       </c>
       <c r="T4">
-        <v>0.3101123185568558</v>
+        <v>0.2973650911288427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H5">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I5">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J5">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.156664</v>
+        <v>1.5953205</v>
       </c>
       <c r="N5">
-        <v>2.313328</v>
+        <v>3.190641</v>
       </c>
       <c r="O5">
-        <v>0.02140233821639188</v>
+        <v>0.02177953180314934</v>
       </c>
       <c r="P5">
-        <v>0.01437074801406779</v>
+        <v>0.01462586939800038</v>
       </c>
       <c r="Q5">
-        <v>41.91622486072534</v>
+        <v>59.654709645339</v>
       </c>
       <c r="R5">
-        <v>251.497349164352</v>
+        <v>357.928257872034</v>
       </c>
       <c r="S5">
-        <v>0.01329414395657856</v>
+        <v>0.01353431622182233</v>
       </c>
       <c r="T5">
-        <v>0.009123789885337559</v>
+        <v>0.009346008980094137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H6">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I6">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J6">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.225729</v>
+        <v>34.41170366666666</v>
       </c>
       <c r="N6">
-        <v>69.677187</v>
+        <v>103.235111</v>
       </c>
       <c r="O6">
-        <v>0.4297573948703004</v>
+        <v>0.4697932449364984</v>
       </c>
       <c r="P6">
-        <v>0.4328453624847321</v>
+        <v>0.4732288122587505</v>
       </c>
       <c r="Q6">
-        <v>841.6747467875454</v>
+        <v>1286.776036938312</v>
       </c>
       <c r="R6">
-        <v>7575.072721087909</v>
+        <v>11580.98433244481</v>
       </c>
       <c r="S6">
-        <v>0.2669454438129668</v>
+        <v>0.2919406345974426</v>
       </c>
       <c r="T6">
-        <v>0.2748075560358815</v>
+        <v>0.3023957488376207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H7">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I7">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J7">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467875</v>
+        <v>0.4183703333333333</v>
       </c>
       <c r="N7">
-        <v>1.403625</v>
+        <v>1.255111</v>
       </c>
       <c r="O7">
-        <v>0.00865732744599499</v>
+        <v>0.005711648524749429</v>
       </c>
       <c r="P7">
-        <v>0.008719533581595823</v>
+        <v>0.005753417437434563</v>
       </c>
       <c r="Q7">
-        <v>8.205344867958333</v>
+        <v>7.337158145920776</v>
       </c>
       <c r="R7">
-        <v>73.84810381162499</v>
+        <v>66.03442331328698</v>
       </c>
       <c r="S7">
-        <v>0.002602406019398464</v>
+        <v>0.001664636691835282</v>
       </c>
       <c r="T7">
-        <v>0.002679052422805277</v>
+        <v>0.0017242514378453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H8">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I8">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J8">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.951965000000001</v>
       </c>
       <c r="O8">
-        <v>0.05521424332716115</v>
+        <v>0.04073781337734952</v>
       </c>
       <c r="P8">
-        <v>0.05561097831598217</v>
+        <v>0.04103572634635814</v>
       </c>
       <c r="Q8">
-        <v>52.33161283882279</v>
+        <v>52.33161283882278</v>
       </c>
       <c r="R8">
         <v>470.984515549405</v>
       </c>
       <c r="S8">
-        <v>0.01659748693664218</v>
+        <v>0.0118728697326573</v>
       </c>
       <c r="T8">
-        <v>0.01708631829877499</v>
+        <v>0.01229806648399289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,13 +977,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H9">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I9">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J9">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.20955833333333</v>
+        <v>33.83923033333334</v>
       </c>
       <c r="N9">
-        <v>78.628675</v>
+        <v>101.517691</v>
       </c>
       <c r="O9">
-        <v>0.4849686961401515</v>
+        <v>0.4619777613582532</v>
       </c>
       <c r="P9">
-        <v>0.4884533776036221</v>
+        <v>0.4653561745594564</v>
       </c>
       <c r="Q9">
-        <v>459.6494041397195</v>
+        <v>593.4545657521275</v>
       </c>
       <c r="R9">
-        <v>4136.844637257475</v>
+        <v>5341.091091769147</v>
       </c>
       <c r="S9">
-        <v>0.1457823400960553</v>
+        <v>0.134641536333437</v>
       </c>
       <c r="T9">
-        <v>0.1500759406969231</v>
+        <v>0.1394633818630264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1039,13 +1039,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H10">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I10">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J10">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.156664</v>
+        <v>1.5953205</v>
       </c>
       <c r="N10">
-        <v>2.313328</v>
+        <v>3.190641</v>
       </c>
       <c r="O10">
-        <v>0.02140233821639188</v>
+        <v>0.02177953180314934</v>
       </c>
       <c r="P10">
-        <v>0.01437074801406779</v>
+        <v>0.01462586939800038</v>
       </c>
       <c r="Q10">
-        <v>20.28496289896267</v>
+        <v>27.97788913154949</v>
       </c>
       <c r="R10">
-        <v>121.709777393776</v>
+        <v>167.867334789297</v>
       </c>
       <c r="S10">
-        <v>0.00643357596798612</v>
+        <v>0.006347555808698214</v>
       </c>
       <c r="T10">
-        <v>0.004415372327468724</v>
+        <v>0.004383251626269043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,13 +1101,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H11">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I11">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J11">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.225729</v>
+        <v>34.41170366666666</v>
       </c>
       <c r="N11">
-        <v>69.677187</v>
+        <v>103.235111</v>
       </c>
       <c r="O11">
-        <v>0.4297573948703004</v>
+        <v>0.4697932449364984</v>
       </c>
       <c r="P11">
-        <v>0.4328453624847321</v>
+        <v>0.4732288122587505</v>
       </c>
       <c r="Q11">
-        <v>407.3205797589977</v>
+        <v>603.4943009970317</v>
       </c>
       <c r="R11">
-        <v>3665.885217830979</v>
+        <v>5431.448708973286</v>
       </c>
       <c r="S11">
-        <v>0.1291857375463906</v>
+        <v>0.1369193271800566</v>
       </c>
       <c r="T11">
-        <v>0.1329905328322069</v>
+        <v>0.1418227460183754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H12">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I12">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J12">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.467875</v>
+        <v>0.4183703333333333</v>
       </c>
       <c r="N12">
-        <v>1.403625</v>
+        <v>1.255111</v>
       </c>
       <c r="O12">
-        <v>0.00865732744599499</v>
+        <v>0.005711648524749429</v>
       </c>
       <c r="P12">
-        <v>0.008719533581595823</v>
+        <v>0.005753417437434563</v>
       </c>
       <c r="Q12">
-        <v>0.2000064252083333</v>
+        <v>0.1154999162936667</v>
       </c>
       <c r="R12">
-        <v>1.800057826875</v>
+        <v>1.039499246643</v>
       </c>
       <c r="S12">
-        <v>6.343400957016041E-05</v>
+        <v>2.620434161872803E-05</v>
       </c>
       <c r="T12">
-        <v>6.53022763398284E-05</v>
+        <v>2.714278372902293E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H13">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I13">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J13">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.951965000000001</v>
       </c>
       <c r="O13">
-        <v>0.05521424332716115</v>
+        <v>0.04073781337734952</v>
       </c>
       <c r="P13">
-        <v>0.05561097831598217</v>
+        <v>0.04103572634635814</v>
       </c>
       <c r="Q13">
-        <v>1.275590359419445</v>
+        <v>0.8237926431716669</v>
       </c>
       <c r="R13">
-        <v>11.480313234775</v>
+        <v>7.414133788545002</v>
       </c>
       <c r="S13">
-        <v>0.0004045660582290435</v>
+        <v>0.000186900082159185</v>
       </c>
       <c r="T13">
-        <v>0.0004164813908376326</v>
+        <v>0.0001935934351183145</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H14">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I14">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J14">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.20955833333333</v>
+        <v>33.83923033333334</v>
       </c>
       <c r="N14">
-        <v>78.628675</v>
+        <v>101.517691</v>
       </c>
       <c r="O14">
-        <v>0.4849686961401515</v>
+        <v>0.4619777613582532</v>
       </c>
       <c r="P14">
-        <v>0.4884533776036221</v>
+        <v>0.4653561745594564</v>
       </c>
       <c r="Q14">
-        <v>11.20401831373611</v>
+        <v>9.342030157353669</v>
       </c>
       <c r="R14">
-        <v>100.836164823625</v>
+        <v>84.07827141618301</v>
       </c>
       <c r="S14">
-        <v>0.003553464865928601</v>
+        <v>0.002119497204078741</v>
       </c>
       <c r="T14">
-        <v>0.003658121979221343</v>
+        <v>0.002195401627013689</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H15">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I15">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J15">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.156664</v>
+        <v>1.5953205</v>
       </c>
       <c r="N15">
-        <v>2.313328</v>
+        <v>3.190641</v>
       </c>
       <c r="O15">
-        <v>0.02140233821639188</v>
+        <v>0.02177953180314934</v>
       </c>
       <c r="P15">
-        <v>0.01437074801406779</v>
+        <v>0.01462586939800038</v>
       </c>
       <c r="Q15">
-        <v>0.4944487989466668</v>
+        <v>0.4404217257555</v>
       </c>
       <c r="R15">
-        <v>2.96669279368</v>
+        <v>2.642530354533</v>
       </c>
       <c r="S15">
-        <v>0.0001568193112379589</v>
+        <v>9.99218157757203E-05</v>
       </c>
       <c r="T15">
-        <v>0.000107625316106982</v>
+        <v>6.900017498050248E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H16">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I16">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J16">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.225729</v>
+        <v>34.41170366666666</v>
       </c>
       <c r="N16">
-        <v>69.677187</v>
+        <v>103.235111</v>
       </c>
       <c r="O16">
-        <v>0.4297573948703004</v>
+        <v>0.4697932449364984</v>
       </c>
       <c r="P16">
-        <v>0.4328453624847321</v>
+        <v>0.4732288122587505</v>
       </c>
       <c r="Q16">
-        <v>9.928495923371667</v>
+        <v>9.500073442960332</v>
       </c>
       <c r="R16">
-        <v>89.35646331034501</v>
+        <v>85.500660986643</v>
       </c>
       <c r="S16">
-        <v>0.003148920364755441</v>
+        <v>0.002155353682416383</v>
       </c>
       <c r="T16">
-        <v>0.003241662780340832</v>
+        <v>0.002232542214285968</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H17">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I17">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J17">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.467875</v>
+        <v>0.4183703333333333</v>
       </c>
       <c r="N17">
-        <v>1.403625</v>
+        <v>1.255111</v>
       </c>
       <c r="O17">
-        <v>0.00865732744599499</v>
+        <v>0.005711648524749429</v>
       </c>
       <c r="P17">
-        <v>0.008719533581595823</v>
+        <v>0.005753417437434563</v>
       </c>
       <c r="Q17">
-        <v>1.7712411716875</v>
+        <v>2.078010511743833</v>
       </c>
       <c r="R17">
-        <v>10.627447030125</v>
+        <v>12.468063070463</v>
       </c>
       <c r="S17">
-        <v>0.0005617665998422416</v>
+        <v>0.0004714539982747083</v>
       </c>
       <c r="T17">
-        <v>0.0003855412156135716</v>
+        <v>0.0003255586192431549</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H18">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I18">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J18">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.951965000000001</v>
       </c>
       <c r="O18">
-        <v>0.05521424332716115</v>
+        <v>0.04073781337734952</v>
       </c>
       <c r="P18">
-        <v>0.05561097831598217</v>
+        <v>0.04103572634635814</v>
       </c>
       <c r="Q18">
-        <v>11.29652790133084</v>
+        <v>14.82122088864084</v>
       </c>
       <c r="R18">
-        <v>67.77916740798501</v>
+        <v>88.92732533184501</v>
       </c>
       <c r="S18">
-        <v>0.003582805193664087</v>
+        <v>0.003362602743235659</v>
       </c>
       <c r="T18">
-        <v>0.00245888429475832</v>
+        <v>0.002322017227889047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H19">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I19">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J19">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.20955833333333</v>
+        <v>33.83923033333334</v>
       </c>
       <c r="N19">
-        <v>78.628675</v>
+        <v>101.517691</v>
       </c>
       <c r="O19">
-        <v>0.4849686961401515</v>
+        <v>0.4619777613582532</v>
       </c>
       <c r="P19">
-        <v>0.4884533776036221</v>
+        <v>0.4653561745594564</v>
       </c>
       <c r="Q19">
-        <v>99.22190502109585</v>
+        <v>168.0766314899339</v>
       </c>
       <c r="R19">
-        <v>595.3314301265751</v>
+        <v>1008.459788939603</v>
       </c>
       <c r="S19">
-        <v>0.03146920538238537</v>
+        <v>0.03813281958134889</v>
       </c>
       <c r="T19">
-        <v>0.02159736036447374</v>
+        <v>0.02633229994057359</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H20">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I20">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J20">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.156664</v>
+        <v>1.5953205</v>
       </c>
       <c r="N20">
-        <v>2.313328</v>
+        <v>3.190641</v>
       </c>
       <c r="O20">
-        <v>0.02140233821639188</v>
+        <v>0.02177953180314934</v>
       </c>
       <c r="P20">
-        <v>0.01437074801406779</v>
+        <v>0.01462586939800038</v>
       </c>
       <c r="Q20">
-        <v>4.378799676428001</v>
+        <v>7.923823714238249</v>
       </c>
       <c r="R20">
-        <v>17.51519870571201</v>
+        <v>31.695294856953</v>
       </c>
       <c r="S20">
-        <v>0.001388779486914083</v>
+        <v>0.001797737956853076</v>
       </c>
       <c r="T20">
-        <v>0.0006354142233380801</v>
+        <v>0.0008276086166566933</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H21">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I21">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J21">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.225729</v>
+        <v>34.41170366666666</v>
       </c>
       <c r="N21">
-        <v>69.677187</v>
+        <v>103.235111</v>
       </c>
       <c r="O21">
-        <v>0.4297573948703004</v>
+        <v>0.4697932449364984</v>
       </c>
       <c r="P21">
-        <v>0.4328453624847321</v>
+        <v>0.4732288122587505</v>
       </c>
       <c r="Q21">
-        <v>87.92597904837052</v>
+        <v>170.9200587350771</v>
       </c>
       <c r="R21">
-        <v>527.5558742902231</v>
+        <v>1025.520352410463</v>
       </c>
       <c r="S21">
-        <v>0.02788659109631279</v>
+        <v>0.0387779294765828</v>
       </c>
       <c r="T21">
-        <v>0.01913860708986671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.351698</v>
-      </c>
-      <c r="H22">
-        <v>1.055094</v>
-      </c>
-      <c r="I22">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J22">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.467875</v>
-      </c>
-      <c r="N22">
-        <v>1.403625</v>
-      </c>
-      <c r="O22">
-        <v>0.00865732744599499</v>
-      </c>
-      <c r="P22">
-        <v>0.008719533581595823</v>
-      </c>
-      <c r="Q22">
-        <v>0.16455070175</v>
-      </c>
-      <c r="R22">
-        <v>1.48095631575</v>
-      </c>
-      <c r="S22">
-        <v>5.218887732588304E-05</v>
-      </c>
-      <c r="T22">
-        <v>5.372595098581598E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.351698</v>
-      </c>
-      <c r="H23">
-        <v>1.055094</v>
-      </c>
-      <c r="I23">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J23">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.983988333333334</v>
-      </c>
-      <c r="N23">
-        <v>8.951965000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.05521424332716115</v>
-      </c>
-      <c r="P23">
-        <v>0.05561097831598217</v>
-      </c>
-      <c r="Q23">
-        <v>1.049462728856667</v>
-      </c>
-      <c r="R23">
-        <v>9.445164559710001</v>
-      </c>
-      <c r="S23">
-        <v>0.0003328474508580274</v>
-      </c>
-      <c r="T23">
-        <v>0.0003426505176359357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.351698</v>
-      </c>
-      <c r="H24">
-        <v>1.055094</v>
-      </c>
-      <c r="I24">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J24">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>26.20955833333333</v>
-      </c>
-      <c r="N24">
-        <v>78.628675</v>
-      </c>
-      <c r="O24">
-        <v>0.4849686961401515</v>
-      </c>
-      <c r="P24">
-        <v>0.4884533776036221</v>
-      </c>
-      <c r="Q24">
-        <v>9.217849246716668</v>
-      </c>
-      <c r="R24">
-        <v>82.96064322045</v>
-      </c>
-      <c r="S24">
-        <v>0.002923531765159303</v>
-      </c>
-      <c r="T24">
-        <v>0.00300963600614812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.351698</v>
-      </c>
-      <c r="H25">
-        <v>1.055094</v>
-      </c>
-      <c r="I25">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J25">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.156664</v>
-      </c>
-      <c r="N25">
-        <v>2.313328</v>
-      </c>
-      <c r="O25">
-        <v>0.02140233821639188</v>
-      </c>
-      <c r="P25">
-        <v>0.01437074801406779</v>
-      </c>
-      <c r="Q25">
-        <v>0.4067964154720001</v>
-      </c>
-      <c r="R25">
-        <v>2.440778492832</v>
-      </c>
-      <c r="S25">
-        <v>0.0001290194936751594</v>
-      </c>
-      <c r="T25">
-        <v>8.854626181645079E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.351698</v>
-      </c>
-      <c r="H26">
-        <v>1.055094</v>
-      </c>
-      <c r="I26">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J26">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>23.225729</v>
-      </c>
-      <c r="N26">
-        <v>69.677187</v>
-      </c>
-      <c r="O26">
-        <v>0.4297573948703004</v>
-      </c>
-      <c r="P26">
-        <v>0.4328453624847321</v>
-      </c>
-      <c r="Q26">
-        <v>8.168442437842002</v>
-      </c>
-      <c r="R26">
-        <v>73.515981940578</v>
-      </c>
-      <c r="S26">
-        <v>0.002590702049874869</v>
-      </c>
-      <c r="T26">
-        <v>0.002667003746436217</v>
+        <v>0.02677777518846846</v>
       </c>
     </row>
   </sheetData>
